--- a/biology/Microbiologie/Sicuophoridae/Sicuophoridae.xlsx
+++ b/biology/Microbiologie/Sicuophoridae/Sicuophoridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Sicuophoridae sont une famille de Ciliés de la classe des Heterotrichea et de l’ordre des Heterotrichida.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille vient du genre type Sicuophora, dérivé du grec ancien, à rapprocher du mot σίκυον / síkyon, « graine de concombre ou de citrouille », et φόρος / phoros, porter, peut-être en référence au « macronoyau irrégulièrement triangulaire et ovoïde »[1] qui fait penser à une graine.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille vient du genre type Sicuophora, dérivé du grec ancien, à rapprocher du mot σίκυον / síkyon, « graine de concombre ou de citrouille », et φόρος / phoros, porter, peut-être en référence au « macronoyau irrégulièrement triangulaire et ovoïde » qui fait penser à une graine.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Paul Earl, en 1972, décrit ainsi l'espèce synonyme de Sicuophora cheni (Wichterman, 1934) Corliss, 1979 : 
@@ -550,7 +566,7 @@
 Les sutures antérieures n'ont pas pu être trouvées, et donc la suture principale semble être la suite dorsale de l'AZM[note 1]. Cette zone des cils (AZM) continue au-delà de l'apex, ce qui n'est pas le cas chez Nyctotherus et Nyctotheroides[note 2] où elle s'arrête avant l'apex.
 Le macronoyau est irrégulièrement triangulaire et ovoïde (taille 5 × 3 μm). Les micronoyaux sont entourés d'une forte paire de caryophores[note 3] se courbant paraboliquement vers les noyaux à partir de la pellicule antérieure et postérieure.
 Le kyste est rond et crénelé, mesurant environ 58 μm de diamètre avec un macronoyau ovoïde allongé d'environ 30x13 μm.
-Lors de la réplication cellulaire, les deux caryophores et l'ouverture buccale se décomposent complètement ; une « ceinture » de constriction se forme au niveau de l'ouverture buccale traversant la cellule ; en même temps le macronoyau se divise[1]. »
+Lors de la réplication cellulaire, les deux caryophores et l'ouverture buccale se décomposent complètement ; une « ceinture » de constriction se forme au niveau de l'ouverture buccale traversant la cellule ; en même temps le macronoyau se divise. »
 </t>
         </is>
       </c>
@@ -579,7 +595,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Sicuophora vit en parasite dans les viscères de grenouilles de la famille des Ranidae (dont le genre Rana).
 </t>
@@ -610,9 +628,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (4 février 2023)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (4 février 2023) :
 Albaretia Affa'a, 1986
 Metasicuophora Albaret, 1973
 Parasicuophora Albaret, 1968
@@ -649,9 +669,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Sicuophoridae Amaro, 1972[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Sicuophoridae Amaro, 1972.
 </t>
         </is>
       </c>
